--- a/Versionamento/Analisi prodotti Federico 2024.xlsx
+++ b/Versionamento/Analisi prodotti Federico 2024.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gessica.dilenardo\Documents\Power BI\Elaborati\BI_Magazzino_Anagrafica_Articoli\Versionamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474F5D31-B17A-4CA3-8452-600D2809B100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE96B09B-AADF-4585-BA71-D76A73330F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-270" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-270" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Codici articoli non config" sheetId="1" r:id="rId1"/>
     <sheet name="Cuscini" sheetId="3" r:id="rId2"/>
     <sheet name="Postural lab" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="230">
   <si>
     <t>AR11020</t>
   </si>
@@ -660,6 +660,72 @@
   </si>
   <si>
     <t>CP1473</t>
+  </si>
+  <si>
+    <t>Colore 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colore 2 </t>
+  </si>
+  <si>
+    <t>Colore 3</t>
+  </si>
+  <si>
+    <t>Blu Marino (3)</t>
+  </si>
+  <si>
+    <t>Q2021 C2</t>
+  </si>
+  <si>
+    <t>Q2022 C2</t>
+  </si>
+  <si>
+    <t>Q 2023 C2</t>
+  </si>
+  <si>
+    <t>Q2021 C1</t>
+  </si>
+  <si>
+    <t>Q2022 C1</t>
+  </si>
+  <si>
+    <t>Q 2023 C1</t>
+  </si>
+  <si>
+    <t>Q2024 C1</t>
+  </si>
+  <si>
+    <t>Fiordaliso (R)</t>
+  </si>
+  <si>
+    <t>Q2021 C3</t>
+  </si>
+  <si>
+    <t>Q2022 C3</t>
+  </si>
+  <si>
+    <t>Q 2023 C3</t>
+  </si>
+  <si>
+    <t>Rosso (F)</t>
+  </si>
+  <si>
+    <t>Q2024 C3</t>
+  </si>
+  <si>
+    <t>Q2024 C2</t>
+  </si>
+  <si>
+    <t>Acquamarina (E)</t>
+  </si>
+  <si>
+    <t>Totale C1 (tre anni)</t>
+  </si>
+  <si>
+    <t>Totale C2 (tre anni)</t>
+  </si>
+  <si>
+    <t>Totale C3 (tre anni)</t>
   </si>
 </sst>
 </file>
@@ -801,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -907,6 +973,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,20 +985,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="31">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -947,19 +1015,10 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -987,6 +1046,10 @@
           <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1068,44 +1131,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{904D1C97-0C41-4A75-9DFF-E32DA4870B63}" name="Tabella1" displayName="Tabella1" ref="A2:V147" totalsRowShown="0" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{904D1C97-0C41-4A75-9DFF-E32DA4870B63}" name="Tabella1" displayName="Tabella1" ref="A2:V147" totalsRowShown="0" dataDxfId="30">
   <autoFilter ref="A2:V147" xr:uid="{904D1C97-0C41-4A75-9DFF-E32DA4870B63}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V147">
     <sortCondition ref="B2:B147"/>
   </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{F287F144-2674-40FA-800F-F42AD9EF5264}" name="Sezione" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{A12CAE76-862A-43ED-97A4-549BF41B6711}" name="Codice Articolo" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{6308D250-397D-43AE-88B7-814870766CF2}" name="Prezzo vendita da listino " dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{CAD3E1F5-54FA-40E8-B7B7-54B0754AB9E6}" name="Prezzo medio vendita 2024" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{8CF83C6E-F01E-4FBF-B46C-462F31F9B3DC}" name="Sconto applicato %" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{F287F144-2674-40FA-800F-F42AD9EF5264}" name="Sezione" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{A12CAE76-862A-43ED-97A4-549BF41B6711}" name="Codice Articolo" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{6308D250-397D-43AE-88B7-814870766CF2}" name="Prezzo vendita da listino " dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{CAD3E1F5-54FA-40E8-B7B7-54B0754AB9E6}" name="Prezzo medio vendita 2024" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{8CF83C6E-F01E-4FBF-B46C-462F31F9B3DC}" name="Sconto applicato %" dataDxfId="25">
       <calculatedColumnFormula>IF(Tabella1[[#This Row],[Prezzo medio vendita 2024]]="","",((Tabella1[[#This Row],[Prezzo vendita da listino ]]-Tabella1[[#This Row],[Prezzo medio vendita 2024]])/Tabella1[[#This Row],[Prezzo vendita da listino ]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{1A192AAC-3D3C-4B3E-BECB-9953954E2E4A}" name="Costo produzione" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{92E683A2-9ED2-4818-A9C2-5E0021540E2E}" name="Costo struttura" dataDxfId="21">
+    <tableColumn id="18" xr3:uid="{1A192AAC-3D3C-4B3E-BECB-9953954E2E4A}" name="Costo produzione" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{92E683A2-9ED2-4818-A9C2-5E0021540E2E}" name="Costo struttura" dataDxfId="23">
       <calculatedColumnFormula>Tabella1[[#This Row],[Costo produzione]]*0.8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{734FAA77-1AE8-4FEB-9C80-332232C8804D}" name="Costo industriale" dataDxfId="20">
+    <tableColumn id="22" xr3:uid="{734FAA77-1AE8-4FEB-9C80-332232C8804D}" name="Costo industriale" dataDxfId="22">
       <calculatedColumnFormula>SUM(Tabella1[[#This Row],[Costo produzione]:[Costo struttura]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{02C0FB92-1889-4D33-81FC-B6CE85B815C3}" name="Utile % su vendita" dataDxfId="19">
+    <tableColumn id="20" xr3:uid="{02C0FB92-1889-4D33-81FC-B6CE85B815C3}" name="Utile % su vendita" dataDxfId="21">
       <calculatedColumnFormula>IF(Tabella1[[#This Row],[Costo industriale]]="","",(Tabella1[[#This Row],[Prezzo medio vendita 2024]]-Tabella1[[#This Row],[Costo industriale]])/Tabella1[[#This Row],[Costo industriale]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C566E978-5DBB-4B3E-9D7C-17886AAC200D}" name="Fatturato 2024" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{DD9EAC6C-1A20-49DB-84D6-AAF3D049BE01}" name="Fatturato 4 anni" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{D56F84F0-F74D-4C55-855F-BCBAC2F49A92}" name="Quantità ultimi 4 anni" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{02872F2E-D9B2-4A6F-9BCD-0003ADDD2300}" name="Quantità 2021" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{4A6D5175-191F-4A5D-B47A-CA31C96224E0}" name="Quantità 2022" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{7D03810B-790E-464D-9DFC-F7F4A6A071EA}" name="Quantità 2023" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{6525C145-59CF-4090-BAC2-91621256BD25}" name="Quantità 2024" dataDxfId="12"/>
-    <tableColumn id="21" xr3:uid="{BFBD5D3F-A270-4163-BE98-066C81B5650E}" name="Andamento PY percentuale" dataDxfId="0">
+    <tableColumn id="16" xr3:uid="{C566E978-5DBB-4B3E-9D7C-17886AAC200D}" name="Fatturato 2024" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{DD9EAC6C-1A20-49DB-84D6-AAF3D049BE01}" name="Fatturato 4 anni" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{D56F84F0-F74D-4C55-855F-BCBAC2F49A92}" name="Quantità ultimi 4 anni" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{02872F2E-D9B2-4A6F-9BCD-0003ADDD2300}" name="Quantità 2021" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{4A6D5175-191F-4A5D-B47A-CA31C96224E0}" name="Quantità 2022" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{7D03810B-790E-464D-9DFC-F7F4A6A071EA}" name="Quantità 2023" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{6525C145-59CF-4090-BAC2-91621256BD25}" name="Quantità 2024" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{BFBD5D3F-A270-4163-BE98-066C81B5650E}" name="Andamento PY percentuale" dataDxfId="13">
       <calculatedColumnFormula>IF(Tabella1[[#This Row],[Quantità 2023]]=0,"100%",(Tabella1[[#This Row],[Quantità 2024]]-Tabella1[[#This Row],[Quantità 2023]])/Tabella1[[#This Row],[Quantità 2023]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9D258EB8-3CF8-4CDF-9A1E-5F17AEDAD0B2}" name="Eliminazione" dataDxfId="11"/>
-    <tableColumn id="19" xr3:uid="{7A36788A-C432-41BC-8F95-77D8B62A08F4}" name="Costo esternalizzato" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{E08A0420-6B16-4D51-BB2B-768E6850CE6C}" name="Produzione annua" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{23D78424-EBE2-4AEE-A77F-AEA6960BB23A}" name="Quantità mese" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{C0C6EFEA-9C0F-4324-BB06-5AB9313AC032}" name="Volume" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{9D258EB8-3CF8-4CDF-9A1E-5F17AEDAD0B2}" name="Eliminazione" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{7A36788A-C432-41BC-8F95-77D8B62A08F4}" name="Costo esternalizzato" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{E08A0420-6B16-4D51-BB2B-768E6850CE6C}" name="Produzione annua" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{23D78424-EBE2-4AEE-A77F-AEA6960BB23A}" name="Quantità mese" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{C0C6EFEA-9C0F-4324-BB06-5AB9313AC032}" name="Volume" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C8DFAA54-41D4-4928-9173-2F5460904DBC}" name="Tabella2" displayName="Tabella2" ref="A1:T35" totalsRowShown="0">
+  <autoFilter ref="A1:T35" xr:uid="{C8DFAA54-41D4-4928-9173-2F5460904DBC}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{C80CFBCE-F877-4AB8-B6C8-4068898D360C}" name="Sezione" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7294F528-486A-4079-B7DA-821D41E3C61F}" name="Codice Articolo" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FCABD3EF-69DA-4FEC-B44A-18AAFD005CB8}" name="Colore 1"/>
+    <tableColumn id="18" xr3:uid="{696FB1BF-4E14-46D4-84AC-A958AB8A90FB}" name="Totale C1 (tre anni)" dataDxfId="2">
+      <calculatedColumnFormula>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{4C56862B-34C7-4451-971C-EC38701620FE}" name="Q2021 C1"/>
+    <tableColumn id="11" xr3:uid="{27130980-7270-44F8-9C6B-D5385C950673}" name="Q2022 C1"/>
+    <tableColumn id="9" xr3:uid="{E9CE29FE-4A1D-4E65-B04D-6680E3AB7894}" name="Q 2023 C1"/>
+    <tableColumn id="4" xr3:uid="{97859A42-99A3-4CFA-8850-86997B8E939C}" name="Q2024 C1"/>
+    <tableColumn id="5" xr3:uid="{B5D2B7A5-F704-4FAB-9A7E-32B466B96865}" name="Colore 2 "/>
+    <tableColumn id="19" xr3:uid="{E84148E9-A9BD-45E9-B0B4-D560AB0A252C}" name="Totale C2 (tre anni)" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{38F6E016-ED24-4BBE-A84E-DF5174514555}" name="Q2021 C2"/>
+    <tableColumn id="7" xr3:uid="{D20BFAFB-D42C-4B22-964D-C0F65FC2097C}" name="Q2022 C2"/>
+    <tableColumn id="8" xr3:uid="{1D771106-E83A-4711-9296-3AD211DB92DE}" name="Q 2023 C2"/>
+    <tableColumn id="12" xr3:uid="{D83EB3E0-D61D-4552-95D2-F43C2BFBDF59}" name="Q2024 C2"/>
+    <tableColumn id="13" xr3:uid="{8C49A6EB-BE14-4010-9505-CA71AAB13BDF}" name="Colore 3"/>
+    <tableColumn id="20" xr3:uid="{356473C4-1651-45B9-8C7E-8D5F5FA3EFD9}" name="Totale C3 (tre anni)" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{84EB0433-3C22-458E-94CB-93903888A659}" name="Q2021 C3"/>
+    <tableColumn id="15" xr3:uid="{07370437-43F8-45B5-ABE9-388C429AF607}" name="Q2022 C3"/>
+    <tableColumn id="16" xr3:uid="{160E8B2E-22B8-4C52-986F-0240A916420B}" name="Q 2023 C3"/>
+    <tableColumn id="17" xr3:uid="{55143CD5-A6A2-4951-BE09-9D17F581522D}" name="Q2024 C3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1376,11 +1474,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C120" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1498,7 @@
     <col min="16" max="16" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1410,24 +1508,24 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="37" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="1" t="s">
         <v>177</v>
@@ -9548,7 +9646,7 @@
         <v>100%</v>
       </c>
       <c r="R126" s="3"/>
-      <c r="S126" s="41"/>
+      <c r="S126" s="37"/>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
       <c r="W126"/>
@@ -10917,12 +11015,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E3:E147">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10944,1071 +11042,872 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65352CCC-45F5-46D6-97E8-B8E9CCF85275}">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>214</v>
+      </c>
+      <c r="E2">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>61</v>
+      </c>
+      <c r="H2">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>55</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>22</v>
+      </c>
+      <c r="P2">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>55</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>219</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>52</v>
+      </c>
+      <c r="H4">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>11</v>
       </c>
       <c r="B17" s="1">
         <v>10000</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
       <c r="B18" s="1">
         <v>10010</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>11</v>
       </c>
       <c r="B19" s="1">
         <v>10020</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>11</v>
       </c>
       <c r="B20" s="1">
         <v>10030</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>11</v>
       </c>
       <c r="B21" s="1">
         <v>10050</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>11</v>
       </c>
       <c r="B22" s="1">
         <v>10130</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>11</v>
       </c>
       <c r="B23" s="1">
         <v>10150</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>11</v>
       </c>
       <c r="B24" s="1">
         <v>10160</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>11</v>
       </c>
       <c r="B25" s="1">
         <v>10200</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>11</v>
       </c>
       <c r="B26" s="1">
         <v>10300</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>11</v>
       </c>
       <c r="B27" s="1">
         <v>10310</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>11</v>
       </c>
       <c r="B28" s="1">
         <v>10320</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>11</v>
       </c>
       <c r="B29" s="1">
         <v>10321</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>11</v>
       </c>
       <c r="B30" s="1">
         <v>10400</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>11</v>
       </c>
       <c r="B31" s="1">
         <v>10410</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>11</v>
       </c>
       <c r="B32" s="1">
         <v>10420</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>11</v>
       </c>
       <c r="B33" s="1">
         <v>10430</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>11</v>
       </c>
       <c r="B34" s="1">
         <v>10490</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40" t="s">
+      <c r="D34">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="D35">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C1]:[Q2024 C1]])</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C2]:[Q2024 C2]])</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>SUM(Tabella2[[#This Row],[Q2021 C3]:[Q2024 C3]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E34">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>40%</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I34">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q34">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.05" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.05" gte="0"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -12983,7 +12882,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E23">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>40%</formula>
     </cfRule>
   </conditionalFormatting>
